--- a/Bases de Datos/Ejemplos.xlsx
+++ b/Bases de Datos/Ejemplos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Java - Forge/Bases de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B1C0C2-C2D3-DA4D-9220-3A81E6449D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FBC9F0-2880-4847-93AE-521020FEC606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{98587CDD-E18A-D143-B50E-0AC83D155E50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="JOINS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
   <si>
     <t>usuarios</t>
   </si>
@@ -584,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0FE0E-D754-8043-A364-2563D3558937}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
@@ -1096,6 +1097,27 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
       <c r="K26">
         <v>2</v>
       </c>
@@ -1158,4 +1180,399 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807135FB-2F4C-B443-9D12-43DA441152B7}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45432</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45432</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <v>123</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5">
+        <v>45432</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45432</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45432</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>234</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="5">
+        <v>45432</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45432</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45432</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4">
+        <v>45432</v>
+      </c>
+      <c r="O10" s="4">
+        <v>45432</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45433</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45433</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>22</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45432</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45432</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>350</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45434</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45434</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45435</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45435</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>500</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>45436</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45436</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{0E4993BD-5D4F-2D46-BD63-067B8598C723}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{971E8E7B-91D1-A647-8D29-8723D8858126}"/>
+    <hyperlink ref="K10" r:id="rId3" xr:uid="{531C2F90-83A9-2646-AB72-411928FBE314}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{CC83A49B-20B9-4941-8565-6EE69859DFBA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>